--- a/data_output/HBSC_DNSSSU/MPALC/insp_desc_20211021_None_[8, 40, 3, 20]_[0.05, 0.78]_[True, 10]_[0.9, 80]_['mov_prev_slope', 'data', None, None, 'max', None, 'max', 1]_mov_prev_slope.xlsx
+++ b/data_output/HBSC_DNSSSU/MPALC/insp_desc_20211021_None_[8, 40, 3, 20]_[0.05, 0.78]_[True, 10]_[0.9, 80]_['mov_prev_slope', 'data', None, None, 'max', None, 'max', 1]_mov_prev_slope.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>sg</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>cov</t>
@@ -589,13 +592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,8 +617,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -623,19 +629,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
+        <v>6453</v>
+      </c>
+      <c r="E2">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5.7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -643,22 +652,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
+        <v>6401</v>
+      </c>
+      <c r="E3">
         <v>0.1808958598276106</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5.9</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.00805826747249353</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.03508771929824565</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -666,19 +678,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
+        <v>6453</v>
+      </c>
+      <c r="E4">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5.7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -686,22 +701,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
+        <v>6420</v>
+      </c>
+      <c r="E5">
         <v>0.1814328105129292</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.8</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.005113900511390136</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.01754385964912274</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -709,19 +727,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
+        <v>6453</v>
+      </c>
+      <c r="E6">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -729,22 +750,25 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
+        <v>6401</v>
+      </c>
+      <c r="E7">
         <v>0.1808958598276106</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.9</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.00805826747249353</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.03508771929824565</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -752,22 +776,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
+        <v>6069</v>
+      </c>
+      <c r="E8">
         <v>0.171513353115727</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.05186689579753163</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.01694915254237297</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -775,19 +802,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
+        <v>15221</v>
+      </c>
+      <c r="E9">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3.8</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -795,22 +825,25 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
+        <v>5365</v>
+      </c>
+      <c r="E10">
         <v>0.1516179171965522</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.6475264437290585</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.3157894736842106</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -818,19 +851,22 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
+        <v>11297</v>
+      </c>
+      <c r="E11">
         <v>0.319259573265508</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3.9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -838,22 +874,25 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
+        <v>9272</v>
+      </c>
+      <c r="E12">
         <v>0.2620319344354953</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4.2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.1792511286182172</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.076923076923077</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -861,19 +900,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
+        <v>6453</v>
+      </c>
+      <c r="E13">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5.7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -881,19 +923,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
+        <v>11297</v>
+      </c>
+      <c r="E14">
         <v>0.319259573265508</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3.9</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -901,22 +946,25 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
+        <v>6979</v>
+      </c>
+      <c r="E15">
         <v>0.1972304648862512</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.3822253695671417</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.02564102564102566</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -924,19 +972,22 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
+        <v>6453</v>
+      </c>
+      <c r="E16">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5.7</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -944,22 +995,25 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
+        <v>6401</v>
+      </c>
+      <c r="E17">
         <v>0.1808958598276106</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.00805826747249353</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.03508771929824565</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -967,22 +1021,25 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
+        <v>6322</v>
+      </c>
+      <c r="E18">
         <v>0.1786632753991804</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5.7</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0123418215903764</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.03389830508474579</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -990,19 +1047,22 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
+        <v>11297</v>
+      </c>
+      <c r="E19">
         <v>0.319259573265508</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3.9</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1010,19 +1070,22 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
+        <v>6453</v>
+      </c>
+      <c r="E20">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5.7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1030,22 +1093,25 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21">
+        <v>6420</v>
+      </c>
+      <c r="E21">
         <v>0.1814328105129292</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5.8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.005113900511390136</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.01754385964912274</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1053,22 +1119,25 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
+        <v>6085</v>
+      </c>
+      <c r="E22">
         <v>0.1719655221138901</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5.7</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.05218068535825537</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.01724137931034477</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1076,19 +1145,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
+        <v>15221</v>
+      </c>
+      <c r="E23">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3.8</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1096,22 +1168,25 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24">
+        <v>13244</v>
+      </c>
+      <c r="E24">
         <v>0.3742828882294758</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1298863412390777</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.05263157894736847</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1119,19 +1194,22 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
+        <v>5866</v>
+      </c>
+      <c r="E25">
         <v>0.1657764589515331</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3.6</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.8342235410484669</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1139,19 +1217,22 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
+        <v>15221</v>
+      </c>
+      <c r="E26">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3.8</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1159,19 +1240,22 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27">
+        <v>15868</v>
+      </c>
+      <c r="E27">
         <v>0.4484386039282182</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.3</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.5515613960717818</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1179,19 +1263,22 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
+        <v>24088</v>
+      </c>
+      <c r="E28">
         <v>0.680740426734492</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3.2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.319259573265508</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1199,19 +1286,22 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
+        <v>6453</v>
+      </c>
+      <c r="E29">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5.7</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1219,22 +1309,25 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30">
+        <v>6401</v>
+      </c>
+      <c r="E30">
         <v>0.1808958598276106</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5.9</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.00805826747249353</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.03508771929824565</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1242,22 +1335,25 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31">
+        <v>6107</v>
+      </c>
+      <c r="E31">
         <v>0.1725872544863643</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5.6</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.04593032338697072</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.05084745762711876</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1265,19 +1361,22 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32">
+        <v>5294</v>
+      </c>
+      <c r="E32">
         <v>0.1496114172672036</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.9</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.8503885827327964</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1285,19 +1384,22 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33">
+        <v>19517</v>
+      </c>
+      <c r="E33">
         <v>0.5515613960717818</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2.6</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.4484386039282182</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1305,19 +1407,22 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
+        <v>6453</v>
+      </c>
+      <c r="E34">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>5.7</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1325,22 +1430,25 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35">
+        <v>6401</v>
+      </c>
+      <c r="E35">
         <v>0.1808958598276106</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>5.9</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.00805826747249353</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.03508771929824565</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1348,22 +1456,25 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36">
+        <v>5554</v>
+      </c>
+      <c r="E36">
         <v>0.1569591634873534</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>5.5</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.1323230745196063</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-0.06779661016949158</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1371,15 +1482,18 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37">
+        <v>4063</v>
+      </c>
+      <c r="E37">
         <v>0.1148226649710329</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2.5</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.8851773350289671</v>
       </c>
     </row>
@@ -1398,69 +1512,69 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1525,7 +1639,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.9970404984423676</v>
@@ -1590,7 +1704,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.9481331042024683</v>
@@ -1655,7 +1769,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.271587593213012</v>
@@ -1720,7 +1834,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1785,7 +1899,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.9919417325275066</v>
@@ -1850,7 +1964,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1915,7 +2029,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.9876581784096234</v>
@@ -1980,7 +2094,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2045,7 +2159,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.9457690509583918</v>
@@ -2110,7 +2224,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0.4086476409006167</v>
@@ -2175,7 +2289,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0.09380294248773964</v>
@@ -2240,7 +2354,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>0.4205374154129164</v>
@@ -2305,7 +2419,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0.1670771972118862</v>
@@ -2370,7 +2484,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0.2657339754234473</v>
@@ -2435,7 +2549,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0.9540696766130292</v>
@@ -2500,7 +2614,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0.07807890855457227</v>
@@ -2565,7 +2679,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0.1415106804668575</v>
@@ -2630,7 +2744,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0.8676769254803937</v>
@@ -2695,7 +2809,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0.01908843007401636</v>
@@ -2773,142 +2887,142 @@
   <sheetData>
     <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:46">
